--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value915.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value915.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.592417279972042</v>
+        <v>1.175745010375977</v>
       </c>
       <c r="B1">
-        <v>1.722482853732359</v>
+        <v>2.955532789230347</v>
       </c>
       <c r="C1">
-        <v>1.997625064387826</v>
+        <v>2.152588605880737</v>
       </c>
       <c r="D1">
-        <v>3.326424122899487</v>
+        <v>1.40204393863678</v>
       </c>
       <c r="E1">
-        <v>1.510493886482272</v>
+        <v>0.9264914989471436</v>
       </c>
     </row>
   </sheetData>
